--- a/Autumn_2024/Computer Architecture/Homework/Homework 7/HW7.xlsx
+++ b/Autumn_2024/Computer Architecture/Homework/Homework 7/HW7.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Autumn_2024\Computer Architecture\Homework\Homework 7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AC44A-F466-4A9A-BF40-B9C4E149C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="32280" yWindow="4935" windowWidth="12150" windowHeight="15510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,244 +25,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
-  <si>
-    <t xml:space="preserve">a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x3207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">([X])+ -&gt; PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x3004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X -&gt; AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x3034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X -&gt; -([AC])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x3028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP -&gt; ([AC])+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x3401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">([n+AC]) -&gt; X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xA004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xEEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inc ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x4012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exg ac (sp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x5008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or sp ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x5500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or [n] ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x6004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and x ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xDCBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x00EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add x ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x5204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or (x)+ ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmp n+sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmp [n]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmp n+x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xFFFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xB0C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ci+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si = X’Y’C+X’YC’+XY’C’+XYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ci+1 = X’YC+XY’C+XYC’+XYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si = Xi (+) Yi (+) Ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ci+1 = XiYi + XiCi + YiCi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CVZN</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>0x0007</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x3207</t>
+  </si>
+  <si>
+    <t>([X])+ -&gt; PC</t>
+  </si>
+  <si>
+    <t>0x3004</t>
+  </si>
+  <si>
+    <t>X -&gt; AC</t>
+  </si>
+  <si>
+    <t>0x3034</t>
+  </si>
+  <si>
+    <t>X -&gt; -([AC])</t>
+  </si>
+  <si>
+    <t>0x3028</t>
+  </si>
+  <si>
+    <t>SP -&gt; ([AC])+</t>
+  </si>
+  <si>
+    <t>0x3401</t>
+  </si>
+  <si>
+    <t>([n+AC]) -&gt; X</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>0xA004</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>0xEEED</t>
+  </si>
+  <si>
+    <t>EEED</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>DCBA</t>
+  </si>
+  <si>
+    <t>0x0200</t>
+  </si>
+  <si>
+    <t>inc ac</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>DCBF</t>
+  </si>
+  <si>
+    <t>0x4012</t>
+  </si>
+  <si>
+    <t>exg ac (sp)</t>
+  </si>
+  <si>
+    <t>0x5008</t>
+  </si>
+  <si>
+    <t>or sp ac</t>
+  </si>
+  <si>
+    <t>0x5500</t>
+  </si>
+  <si>
+    <t>or [n] ac</t>
+  </si>
+  <si>
+    <t>FCBF</t>
+  </si>
+  <si>
+    <t>0x6004</t>
+  </si>
+  <si>
+    <t>and x ac</t>
+  </si>
+  <si>
+    <t>ECAD</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>0xDCBA</t>
+  </si>
+  <si>
+    <t>0x00EE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>0x1101</t>
+  </si>
+  <si>
+    <t>0x1001</t>
+  </si>
+  <si>
+    <t>add x ac</t>
+  </si>
+  <si>
+    <t>0x5204</t>
+  </si>
+  <si>
+    <t>or (x)+ ac</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0x0642</t>
+  </si>
+  <si>
+    <t>jmp n+sp</t>
+  </si>
+  <si>
+    <t>0x0650</t>
+  </si>
+  <si>
+    <t>jmp [n]</t>
+  </si>
+  <si>
+    <t>0x0641</t>
+  </si>
+  <si>
+    <t>jmp n+x</t>
+  </si>
+  <si>
+    <t>0xFFFC</t>
+  </si>
+  <si>
+    <t>0xB0C0</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Ci</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Si = Xi (+) Yi (+) Ci</t>
+  </si>
+  <si>
+    <t>Ci+1 = XiYi + XiCi + YiCi</t>
+  </si>
+  <si>
+    <t>G = XY</t>
+  </si>
+  <si>
+    <t>P = X(+)Y</t>
+  </si>
+  <si>
+    <t>S = P(+)Ci</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Co = G+(PCi)</t>
+  </si>
+  <si>
+    <t>S = (X(+)Y) (+) C</t>
+  </si>
+  <si>
+    <t>Co = (XY) + ((X(+)Y)C)</t>
+  </si>
+  <si>
+    <t>S = (XY')+(X'Y) (+) C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S = ((XY')+(X'Y))'C + ((XY')+(X'Y))C' </t>
+  </si>
+  <si>
+    <t>S = XY'C+X'YC + XY'C' + X'YC'</t>
+  </si>
+  <si>
+    <t>^ I didn't need to do any of this, let's go back to step 2…..</t>
+  </si>
+  <si>
+    <t>S = X (+) Y (+) C</t>
+  </si>
+  <si>
+    <t>Ci+1 = Co!!!</t>
+  </si>
+  <si>
+    <t>Co = XY + (XY'+X'Y)C</t>
+  </si>
+  <si>
+    <t>Co = XY + XY'C + X'YC</t>
+  </si>
+  <si>
+    <t>Cancel unnecessary terms</t>
+  </si>
+  <si>
+    <t>Co = XY + XC + YC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,30 +307,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,16 +389,22 @@
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -381,135 +420,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="8">
+    <cellStyle name="Excel Built-in 20% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent4" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Excel Built-in Check Cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Check Cell" xfId="20"/>
-    <cellStyle name="Excel Built-in 20% - Accent3" xfId="21"/>
-    <cellStyle name="Excel Built-in 20% - Accent1" xfId="22"/>
-    <cellStyle name="Excel Built-in 20% - Accent2" xfId="23"/>
-    <cellStyle name="Excel Built-in 20% - Accent4" xfId="24"/>
-    <cellStyle name="Excel Built-in 20% - Accent5" xfId="25"/>
-    <cellStyle name="Excel Built-in 20% - Accent6" xfId="26"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF006600"/>
-        <sz val="11"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill>
@@ -519,15 +481,20 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -586,44 +553,351 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.76"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="18" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,14 +918,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
@@ -659,7 +933,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -667,14 +941,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>7</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -683,13 +957,13 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5">
         <v>8000</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -699,12 +973,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -715,12 +989,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -730,17 +1004,17 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>8</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>2</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -755,8 +1029,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -765,26 +1039,26 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -793,20 +1067,20 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>8000</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -816,19 +1090,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>8000</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -840,13 +1114,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>6</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -861,8 +1135,8 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -875,8 +1149,8 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -889,7 +1163,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -910,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -925,7 +1199,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -940,7 +1214,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
@@ -949,13 +1223,13 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>7</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -965,27 +1239,27 @@
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="7"/>
       <c r="L23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="9" t="n">
+      <c r="M23" s="9">
         <v>1101</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="N23" s="9">
         <v>1100</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="9">
         <v>1011</v>
       </c>
-      <c r="P23" s="9" t="n">
+      <c r="P23" s="9">
         <v>1010</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -996,27 +1270,27 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8" t="n">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
         <v>7</v>
       </c>
-      <c r="M24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9" t="n">
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
         <v>111</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1033,24 +1307,24 @@
       <c r="L25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="9" t="n">
+      <c r="M25" s="9">
         <v>1011</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="N25" s="9">
         <v>1100</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="9">
         <v>1011</v>
       </c>
-      <c r="P25" s="9" t="n">
+      <c r="P25" s="9">
         <v>1111</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1064,13 +1338,13 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6">
         <v>2</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1084,7 +1358,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="6">
         <v>3</v>
       </c>
       <c r="H27" s="7"/>
@@ -1097,21 +1371,21 @@
       <c r="L27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="M27" s="9">
         <v>1101</v>
       </c>
-      <c r="N27" s="9" t="n">
+      <c r="N27" s="9">
         <v>1100</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="9">
         <v>1011</v>
       </c>
-      <c r="P27" s="9" t="n">
+      <c r="P27" s="9">
         <v>1111</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1125,28 +1399,28 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="6">
         <v>4</v>
       </c>
       <c r="H28" s="7"/>
       <c r="L28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="M28" s="9">
         <v>1010</v>
       </c>
-      <c r="N28" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9" t="n">
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1158,31 +1432,31 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="6">
         <v>5</v>
       </c>
       <c r="H29" s="7"/>
       <c r="L29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="9" t="n">
+      <c r="M29" s="9">
         <v>1111</v>
       </c>
-      <c r="N29" s="9" t="n">
+      <c r="N29" s="9">
         <v>1100</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="9">
         <v>1011</v>
       </c>
-      <c r="P29" s="9" t="n">
+      <c r="P29" s="9">
         <v>1111</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1196,13 +1470,13 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="6">
         <v>6</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1219,21 +1493,21 @@
       <c r="L31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="9" t="n">
+      <c r="M31" s="9">
         <v>1111</v>
       </c>
-      <c r="N31" s="9" t="n">
+      <c r="N31" s="9">
         <v>1100</v>
       </c>
-      <c r="O31" s="9" t="n">
+      <c r="O31" s="9">
         <v>1011</v>
       </c>
-      <c r="P31" s="9" t="n">
+      <c r="P31" s="9">
         <v>1111</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1248,21 +1522,21 @@
       <c r="L32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="9" t="n">
+      <c r="M32" s="9">
         <v>1110</v>
       </c>
-      <c r="N32" s="9" t="n">
+      <c r="N32" s="9">
         <v>1110</v>
       </c>
-      <c r="O32" s="9" t="n">
+      <c r="O32" s="9">
         <v>1110</v>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="P32" s="9">
         <v>1101</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1277,24 +1551,23 @@
       <c r="L33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="9" t="n">
+      <c r="M33" s="9">
         <v>1110</v>
       </c>
-      <c r="N33" s="9" t="n">
+      <c r="N33" s="9">
         <v>1100</v>
       </c>
-      <c r="O33" s="9" t="n">
+      <c r="O33" s="9">
         <v>1010</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="P33" s="9">
         <v>1101</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
@@ -1315,14 +1588,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="4"/>
@@ -1330,7 +1603,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1338,14 +1611,14 @@
         <v>2</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
@@ -1354,13 +1627,13 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="5">
         <v>3</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
@@ -1370,12 +1643,12 @@
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="6">
         <v>4</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1386,12 +1659,12 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="7" t="n">
+      <c r="H41" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1400,20 +1673,20 @@
       <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>8</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7" t="n">
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1425,25 +1698,25 @@
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="6">
         <v>2</v>
       </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8" t="n">
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
         <v>8</v>
       </c>
-      <c r="K43" s="9" t="n">
+      <c r="K43" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1455,19 +1728,19 @@
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="6">
         <v>6</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="J44" s="8" t="n">
+      <c r="J44" s="8">
         <v>7</v>
       </c>
-      <c r="K44" s="9" t="n">
+      <c r="K44" s="9">
         <v>111</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1484,15 +1757,15 @@
       <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="9">
         <v>1111</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1504,13 +1777,13 @@
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="6" t="n">
+      <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1525,8 +1798,8 @@
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1538,15 +1811,15 @@
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="6" t="n">
+      <c r="G48" s="6">
         <v>4</v>
       </c>
-      <c r="H48" s="7" t="n">
+      <c r="H48" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1561,8 +1834,8 @@
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1575,12 +1848,13 @@
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>66</v>
       </c>
@@ -1594,185 +1868,239 @@
         <v>69</v>
       </c>
       <c r="F54" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="0" t="s">
+      <c r="K64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K68" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B55:F62">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>